--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_124.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_124.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,403 +488,412 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5384615384615384</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C:maj', 'F/5', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (11.7, 20.02)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.7, 62.32)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.1, 63.44)]</t>
+          <t>[('0:01:17.680000', '0:01:26.540000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[('0:01:09.840000', '0:01:21.680000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4285714285714285</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86), (84.0, 90.84)]</t>
+          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[('0:00:09.100000', '0:00:13.860000'), ('0:00:00.780000', '0:00:05.980000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:13.480000', '0:00:20.960000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.36, 6.46)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(14.9, 28.9)]</t>
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:01:05.440000', '0:01:09.180000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>schubert-winterreise_55</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.36, 110.76)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(5.46, 126.86)]</t>
+          <t>[('0:01:33.920000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:13.080000', '0:00:19.460000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[(0.36, 5.0)]</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
@@ -888,317 +902,270 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[('0:01:17.720000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(27.52, 38.5)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(21.58, 29.34)]</t>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(25.48, 32.76), (74.8, 81.06)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(79.12, 99.32)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(88.18, 109.56)]</t>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(97.72, 114.06)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(13.08, 19.46)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
